--- a/RaceWebScraper/data/LigaOCRA.xlsx
+++ b/RaceWebScraper/data/LigaOCRA.xlsx
@@ -590,7 +590,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>255</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>200</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>182</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>175</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>172</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>168</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>166</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>165</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>158</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>153</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>152</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>147</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>147</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>139</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>138</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>138</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>134</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>131</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>127</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>125</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>123</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>118</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>115</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>113</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>106</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>105</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>100</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>100</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>99</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>92</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>92</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>82</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>82</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>82</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>79</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>79</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>79</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>79</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>77</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>77</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>76</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>76</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>76</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>75</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>75</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>74</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>74</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>74</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>73</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>73</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>72</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>71</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>70</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>70</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>69</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>68</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>68</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>68</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>67</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
         <v>67</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>66</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>65</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
         <v>64</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>61</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
         <v>60</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
         <v>60</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
         <v>58</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
         <v>57</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
         <v>55</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
         <v>54</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
         <v>53</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
         <v>52</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
         <v>50</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
         <v>50</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
         <v>49</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
         <v>46</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
         <v>45</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>184</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>182</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>172</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>165</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>100</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>100</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>86</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>86</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>82</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>80</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>191.8</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>187.5</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>186.5</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>186.2</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>182.6</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>177.6</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>176.6</v>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>175.7</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>172.6</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>166</v>
@@ -6368,7 +6368,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>156.6</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>150.2</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>149.7</v>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>136.6</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>100</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>100</v>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>100</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>98.2</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>98.09999999999999</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>97.09999999999999</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>94.59999999999999</v>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>93.90000000000001</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>93.59999999999999</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>93.2</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>92.40000000000001</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>91.2</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>90.59999999999999</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>90.40000000000001</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>90.3</v>
@@ -7276,7 +7276,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>88.8</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>88.09999999999999</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>87.90000000000001</v>
@@ -7408,7 +7408,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>86.7</v>
@@ -7452,7 +7452,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>86.5</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>85.3</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>84.90000000000001</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>84.09999999999999</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>82.7</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>82.5</v>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>81.90000000000001</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>81.8</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>81</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>80.8</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>80.3</v>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>80</v>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>79.90000000000001</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>79.40000000000001</v>
@@ -8089,7 +8089,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>78.90000000000001</v>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>76.90000000000001</v>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>75.90000000000001</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>74</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>73.3</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>70.90000000000001</v>
@@ -8360,7 +8360,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>70.7</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>69.3</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>65.8</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>65.2</v>
@@ -8550,7 +8550,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>64.40000000000001</v>
@@ -8594,7 +8594,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>61.5</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -9219,7 +9219,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -9618,7 +9618,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -9982,7 +9982,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -10108,7 +10108,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -10192,7 +10192,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -10318,7 +10318,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -10402,7 +10402,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -10542,7 +10542,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -10626,7 +10626,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -10794,7 +10794,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -10836,7 +10836,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -11018,7 +11018,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -11270,7 +11270,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -11354,7 +11354,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -11438,7 +11438,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -11522,7 +11522,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -11648,7 +11648,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -11774,7 +11774,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -11900,7 +11900,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -11984,7 +11984,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -12033,7 +12033,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -12075,7 +12075,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -12201,7 +12201,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -12250,7 +12250,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -12334,7 +12334,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -12376,7 +12376,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -12418,7 +12418,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -12502,7 +12502,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -12586,7 +12586,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -12635,7 +12635,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -12684,7 +12684,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -12726,7 +12726,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -12817,7 +12817,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -12859,7 +12859,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -12943,7 +12943,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -12985,7 +12985,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -13027,7 +13027,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -13111,7 +13111,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -13195,7 +13195,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -13237,7 +13237,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -13446,7 +13446,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>100</v>
@@ -13490,7 +13490,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -13574,7 +13574,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -13616,7 +13616,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -13658,7 +13658,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -13707,7 +13707,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -13756,7 +13756,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -13840,7 +13840,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -13882,7 +13882,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -13924,7 +13924,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -14008,7 +14008,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -14050,7 +14050,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -14092,7 +14092,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -14134,7 +14134,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -14176,7 +14176,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -14218,7 +14218,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -14260,7 +14260,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -14302,7 +14302,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -14351,7 +14351,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -14393,7 +14393,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -14435,7 +14435,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -14477,7 +14477,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -14519,7 +14519,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -14561,7 +14561,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -14603,7 +14603,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -14645,7 +14645,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -14736,7 +14736,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -14778,7 +14778,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -14820,7 +14820,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -14862,7 +14862,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -14911,7 +14911,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -14953,7 +14953,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -14995,7 +14995,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
